--- a/test_file1.xlsx
+++ b/test_file1.xlsx
@@ -19,16 +19,16 @@
     <t>DIN</t>
   </si>
   <si>
-    <t>Product</t>
+    <t>Product Name</t>
   </si>
   <si>
-    <t>Manufacturer</t>
+    <t>Company</t>
   </si>
   <si>
-    <t>Note of Compliance Date</t>
+    <t>Schedule</t>
   </si>
   <si>
-    <t>Medical Ingredients</t>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -36,13 +36,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -83,14 +89,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -117,10 +123,10 @@
   <autoFilter ref="A1:E6"/>
   <tableColumns count="5">
     <tableColumn name="DIN" id="1"/>
-    <tableColumn name="Product" id="2"/>
-    <tableColumn name="Manufacturer" id="3"/>
-    <tableColumn name="Note of Compliance Date" id="4"/>
-    <tableColumn name="Medical Ingredients" id="5"/>
+    <tableColumn name="Product Name" id="2"/>
+    <tableColumn name="Company" id="3"/>
+    <tableColumn name="Schedule" id="4"/>
+    <tableColumn name="Status" id="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -427,7 +433,7 @@
     <col min="5" max="5" style="6" width="21.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>2537044</v>
       </c>
@@ -453,7 +459,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>2537532</v>
       </c>
@@ -462,7 +468,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
         <v>2537648</v>
       </c>
@@ -471,7 +477,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
         <v>2537648</v>
       </c>
@@ -480,70 +486,70 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
